--- a/FinalRelease/系统测试用例.xlsx
+++ b/FinalRelease/系统测试用例.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\Online-Consultation-Platform\FinalRelease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC942C0-3977-4848-9A03-1A4CC7EA43F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BA6821-3A00-43E6-A233-FC0AD97693C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="351">
   <si>
     <t>进行首次安装、升级、完整的或自定义的安装，系统能够正常进行安装</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1417,9 +1417,6 @@
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Low(微小错误)</t>
   </si>
   <si>
@@ -1772,10 +1769,6 @@
   <si>
     <t>显示登录成功并跳转到注册页面</t>
     <phoneticPr fontId="29" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>操作验证</t>
@@ -2408,6 +2401,25 @@
   </si>
   <si>
     <t>Online Consultation Platform-testcase-006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月19日由朱涵修复完毕</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3067,6 +3079,72 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3106,66 +3184,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="34" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3177,6 +3195,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3186,32 +3213,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3623,80 +3635,80 @@
   <sheetData>
     <row r="1" spans="1:8" ht="51" customHeight="1">
       <c r="A1" s="22"/>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="74" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
       <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1">
       <c r="A2" s="16"/>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="76" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="61"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
       <c r="A3" s="16"/>
-      <c r="B3" s="56" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="62" t="s">
+      <c r="B3" s="78" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="63"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:8" ht="28.5">
       <c r="A4" s="16"/>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="76" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="59"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="84" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:8" ht="27.75" customHeight="1">
       <c r="A5" s="16"/>
-      <c r="B5" s="60">
+      <c r="B5" s="82">
         <v>17</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="80"/>
       <c r="D5" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="F5" s="63"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:8" ht="101.25" customHeight="1">
       <c r="A6" s="20"/>
-      <c r="B6" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
+      <c r="B6" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="30">
@@ -3704,10 +3716,10 @@
       <c r="B7" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C7" s="74" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="75"/>
+      <c r="C7" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="D7" s="73"/>
       <c r="E7" s="3" t="s">
         <v>206</v>
       </c>
@@ -3721,8 +3733,8 @@
       <c r="B8" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="75"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
       <c r="E8" s="3" t="s">
         <v>206</v>
       </c>
@@ -3736,8 +3748,8 @@
       <c r="B9" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
       <c r="E9" s="3" t="s">
         <v>206</v>
       </c>
@@ -3748,22 +3760,22 @@
     </row>
     <row r="10" spans="1:8" ht="28.5" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8" ht="31.5">
       <c r="A11" s="16"/>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="7" t="s">
         <v>165</v>
       </c>
@@ -3778,43 +3790,43 @@
     </row>
     <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="16"/>
-      <c r="B12" s="83">
+      <c r="B12" s="64">
         <v>45436</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="29" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="52" t="s">
         <v>248</v>
       </c>
       <c r="F12" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="16"/>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="65" t="s">
+        <v>263</v>
+      </c>
+      <c r="C13" s="57"/>
+      <c r="D13" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C13" s="77"/>
-      <c r="D13" s="46" t="s">
+      <c r="E13" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="E13" s="99" t="s">
-        <v>266</v>
-      </c>
       <c r="F13" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="16"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="77"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="30"/>
       <c r="E14" s="31"/>
       <c r="F14" s="31"/>
@@ -3822,8 +3834,8 @@
     </row>
     <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="16"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
@@ -3831,8 +3843,8 @@
     </row>
     <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="16"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="77"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
       <c r="D16" s="30"/>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -3840,8 +3852,8 @@
     </row>
     <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="16"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="77"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="30"/>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -3849,21 +3861,21 @@
     </row>
     <row r="18" spans="1:9" ht="28.5" customHeight="1">
       <c r="A18" s="22"/>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="59" t="s">
         <v>235</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A19" s="19"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="26" t="s">
         <v>211</v>
       </c>
@@ -3879,21 +3891,21 @@
     </row>
     <row r="20" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A20" s="19"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="66" t="s">
         <v>230</v>
       </c>
-      <c r="C20" s="68"/>
+      <c r="C20" s="67"/>
       <c r="D20" s="9">
         <f>COUNTIF('Test Cases'!C:C,B20)</f>
         <v>8</v>
       </c>
       <c r="E20" s="9">
         <f>SUMPRODUCT(('Test Cases'!C:C=B20)*('Test Cases'!K:K="Y"))</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="28">
         <f t="shared" ref="F20:F29" si="0">IF(D20,E20/D20,0)</f>
-        <v>0.625</v>
+        <v>1</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="10"/>
@@ -3901,10 +3913,10 @@
     </row>
     <row r="21" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A21" s="19"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="C21" s="66"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="9">
         <f>COUNTIF('Test Cases'!C:C,B21)</f>
         <v>0</v>
@@ -3923,21 +3935,21 @@
     </row>
     <row r="22" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="C22" s="66"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="9">
         <f>COUNTIF('Test Cases'!C:C,B22)</f>
         <v>3</v>
       </c>
       <c r="E22" s="9">
         <f>SUMPRODUCT(('Test Cases'!C:C=B22)*('Test Cases'!K:K="Y"))</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="28">
         <f>IF(D22,E22/D22,0)</f>
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="G22" s="23"/>
       <c r="H22" s="10"/>
@@ -3945,10 +3957,10 @@
     </row>
     <row r="23" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A23" s="19"/>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="66"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="9">
         <f>COUNTIF('Test Cases'!C:C,B23)</f>
         <v>0</v>
@@ -3967,10 +3979,10 @@
     </row>
     <row r="24" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A24" s="19"/>
-      <c r="B24" s="65" t="s">
+      <c r="B24" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="9">
         <f>COUNTIF('Test Cases'!C:C,B24)</f>
         <v>0</v>
@@ -3989,10 +4001,10 @@
     </row>
     <row r="25" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A25" s="19"/>
-      <c r="B25" s="65" t="s">
+      <c r="B25" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="66"/>
+      <c r="C25" s="55"/>
       <c r="D25" s="9">
         <f>COUNTIF('Test Cases'!C:C,B25)</f>
         <v>2</v>
@@ -4011,10 +4023,10 @@
     </row>
     <row r="26" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A26" s="19"/>
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="73"/>
+      <c r="C26" s="58"/>
       <c r="D26" s="9">
         <f>COUNTIF('Test Cases'!C:C,B26)</f>
         <v>0</v>
@@ -4033,10 +4045,10 @@
     </row>
     <row r="27" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A27" s="19"/>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C27" s="73"/>
+      <c r="C27" s="58"/>
       <c r="D27" s="9">
         <f>COUNTIF('Test Cases'!C:C,B27)</f>
         <v>0</v>
@@ -4053,10 +4065,10 @@
     </row>
     <row r="28" spans="1:9" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A28" s="19"/>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="C28" s="73"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="9">
         <f>COUNTIF('Test Cases'!C:C,B28)</f>
         <v>0</v>
@@ -4073,21 +4085,21 @@
     </row>
     <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="24"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C29" s="73"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="9">
         <f>SUM(D20:D28)</f>
         <v>13</v>
       </c>
       <c r="E29" s="9">
         <f>COUNTIF('Test Cases'!K:K,"Y")</f>
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>0.69230769230769229</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12"/>
     </row>
@@ -4152,6 +4164,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="C9:D9"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B29:C29"/>
@@ -4168,23 +4197,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -4202,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AP904"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.125" defaultRowHeight="15.75"/>
@@ -4228,54 +4240,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="19.5" customHeight="1">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
     </row>
     <row r="4" spans="1:42" ht="47.25">
       <c r="A4" s="4" t="s">
@@ -4320,7 +4332,7 @@
     </row>
     <row r="5" spans="1:42" ht="117" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B5" s="42" t="s">
         <v>251</v>
@@ -4339,13 +4351,13 @@
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>255</v>
@@ -4360,7 +4372,7 @@
     </row>
     <row r="6" spans="1:42" ht="88.5">
       <c r="A6" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B6" s="42" t="s">
         <v>251</v>
@@ -4379,59 +4391,61 @@
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I6" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J6" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="M6" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="7" spans="1:42" ht="75">
       <c r="A7" s="48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C7" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E7" s="44" t="s">
         <v>253</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="47" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="47" t="s">
+      <c r="J7" s="47" t="s">
         <v>277</v>
       </c>
-      <c r="J7" s="47" t="s">
-        <v>278</v>
-      </c>
       <c r="K7" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M7" s="32" t="s">
         <v>162</v>
@@ -4441,35 +4455,35 @@
     </row>
     <row r="8" spans="1:42" ht="60">
       <c r="A8" s="48" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C8" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E8" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="47" t="s">
         <v>282</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>284</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="I8" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="I8" s="47" t="s">
-        <v>287</v>
-      </c>
       <c r="J8" s="42" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L8" s="6" t="s">
         <v>256</v>
@@ -4482,41 +4496,43 @@
     </row>
     <row r="9" spans="1:42" ht="60">
       <c r="A9" s="48" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B9" s="43" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C9" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D9" s="43" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="I9" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="J9" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="J9" s="41" t="s">
-        <v>296</v>
-      </c>
       <c r="K9" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="L9" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="M9" s="32"/>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="X9" s="33"/>
       <c r="AP9" s="5" t="s">
         <v>160</v>
@@ -4524,35 +4540,35 @@
     </row>
     <row r="10" spans="1:42" ht="60">
       <c r="A10" s="48" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B10" s="43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C10" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D10" s="43" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G10" s="43"/>
       <c r="H10" s="41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I10" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>256</v>
@@ -4566,35 +4582,35 @@
     </row>
     <row r="11" spans="1:42" ht="60">
       <c r="A11" s="48" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C11" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D11" s="43" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G11" s="41"/>
       <c r="H11" s="49" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I11" s="43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J11" s="43" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>256</v>
@@ -4607,76 +4623,78 @@
     </row>
     <row r="12" spans="1:42" ht="60">
       <c r="A12" s="48" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C12" s="49" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="I12" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="J12" s="43" t="s">
         <v>311</v>
       </c>
-      <c r="I12" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>313</v>
-      </c>
       <c r="K12" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="L12" s="6" t="s">
-        <v>259</v>
-      </c>
       <c r="M12" s="32"/>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>350</v>
+      </c>
       <c r="AP12" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="69">
       <c r="A13" s="48" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>314</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>316</v>
-      </c>
       <c r="E13" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G13" s="41"/>
       <c r="H13" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I13" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J13" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>256</v>
@@ -4686,35 +4704,35 @@
     </row>
     <row r="14" spans="1:42" ht="60">
       <c r="A14" s="48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F14" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G14" s="41"/>
       <c r="H14" s="47" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I14" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J14" s="43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>256</v>
@@ -4724,35 +4742,35 @@
     </row>
     <row r="15" spans="1:42" ht="60">
       <c r="A15" s="48" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G15" s="42"/>
       <c r="H15" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J15" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>256</v>
@@ -4762,35 +4780,35 @@
     </row>
     <row r="16" spans="1:42" ht="129">
       <c r="A16" s="48" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E16" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F16" s="51" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G16" s="42"/>
       <c r="H16" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="I16" s="43" t="s">
         <v>330</v>
       </c>
-      <c r="I16" s="43" t="s">
-        <v>332</v>
-      </c>
       <c r="J16" s="47" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>256</v>
@@ -4800,41 +4818,43 @@
     </row>
     <row r="17" spans="1:14" ht="117">
       <c r="A17" s="48" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E17" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="I17" s="43" t="s">
+        <v>333</v>
+      </c>
+      <c r="J17" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="I17" s="43" t="s">
+      <c r="K17" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="47" t="s">
-        <v>336</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>337</v>
-      </c>
       <c r="M17" s="32"/>
-      <c r="N17" s="6"/>
+      <c r="N17" s="6" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="6"/>
@@ -9708,14 +9728,14 @@
   <sheetData>
     <row r="1" spans="1:2" ht="303" customHeight="1">
       <c r="B1" s="50" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="92" t="s">
         <v>240</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="92"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="38" t="s">
@@ -9758,13 +9778,13 @@
       <c r="B10" s="91"/>
     </row>
     <row r="11" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="90"/>
     </row>
     <row r="12" spans="1:2" ht="24.75" customHeight="1">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="90" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -9772,85 +9792,85 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="20.25" customHeight="1">
-      <c r="A13" s="94"/>
+      <c r="A13" s="90"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="33.75" customHeight="1">
-      <c r="A14" s="94"/>
+      <c r="A14" s="90"/>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A15" s="94"/>
+      <c r="A15" s="90"/>
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A16" s="94"/>
+      <c r="A16" s="90"/>
       <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="36.75" customHeight="1">
-      <c r="A17" s="94"/>
+      <c r="A17" s="90"/>
       <c r="B17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5" customHeight="1">
-      <c r="A18" s="94"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="50.25" customHeight="1">
-      <c r="A19" s="94"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18" customHeight="1">
-      <c r="A20" s="94"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18" customHeight="1">
-      <c r="A21" s="94"/>
+      <c r="A21" s="90"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="25.5">
-      <c r="A22" s="94"/>
+      <c r="A22" s="90"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A23" s="94"/>
+      <c r="A23" s="90"/>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="17.25" customHeight="1">
-      <c r="A24" s="94"/>
+      <c r="A24" s="90"/>
       <c r="B24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="94"/>
+      <c r="B25" s="90"/>
     </row>
     <row r="26" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A26" s="94" t="s">
+      <c r="A26" s="90" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -9858,61 +9878,61 @@
       </c>
     </row>
     <row r="27" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A27" s="94"/>
+      <c r="A27" s="90"/>
       <c r="B27" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A28" s="94"/>
+      <c r="A28" s="90"/>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A29" s="94"/>
+      <c r="A29" s="90"/>
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A30" s="94"/>
+      <c r="A30" s="90"/>
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A31" s="94"/>
+      <c r="A31" s="90"/>
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A32" s="94"/>
+      <c r="A32" s="90"/>
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A33" s="94"/>
+      <c r="A33" s="90"/>
       <c r="B33" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A34" s="94"/>
+      <c r="A34" s="90"/>
       <c r="B34" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="94"/>
+      <c r="B35" s="90"/>
     </row>
     <row r="36" spans="1:2" ht="33" customHeight="1">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="93" t="s">
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -9920,25 +9940,25 @@
       </c>
     </row>
     <row r="37" spans="1:2" ht="45.75" customHeight="1">
-      <c r="A37" s="89"/>
+      <c r="A37" s="94"/>
       <c r="B37" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" customHeight="1">
-      <c r="A38" s="90"/>
+      <c r="A38" s="95"/>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="27" customHeight="1">
-      <c r="A39" s="94" t="s">
+      <c r="A39" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="94"/>
+      <c r="B39" s="90"/>
     </row>
     <row r="40" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A40" s="94" t="s">
+      <c r="A40" s="90" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -9946,28 +9966,28 @@
       </c>
     </row>
     <row r="41" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A41" s="94"/>
+      <c r="A41" s="90"/>
       <c r="B41" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="25.5">
-      <c r="A42" s="94"/>
+      <c r="A42" s="90"/>
       <c r="B42" s="2" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A43" s="94"/>
+      <c r="A43" s="90"/>
       <c r="B43" s="2" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="27" customHeight="1">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="94"/>
+      <c r="B44" s="90"/>
     </row>
     <row r="45" spans="1:2" ht="32.25" customHeight="1">
       <c r="A45" s="2" t="s">
@@ -9978,13 +9998,13 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="27" customHeight="1">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="B46" s="94"/>
+      <c r="B46" s="90"/>
     </row>
     <row r="47" spans="1:2" ht="27" customHeight="1">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="90" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -9992,37 +10012,37 @@
       </c>
     </row>
     <row r="48" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A48" s="94"/>
+      <c r="A48" s="90"/>
       <c r="B48" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A49" s="94"/>
+      <c r="A49" s="90"/>
       <c r="B49" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A50" s="94"/>
+      <c r="A50" s="90"/>
       <c r="B50" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A51" s="94"/>
+      <c r="A51" s="90"/>
       <c r="B51" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="27" customHeight="1">
-      <c r="A52" s="94" t="s">
+      <c r="A52" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B52" s="94"/>
+      <c r="B52" s="90"/>
     </row>
     <row r="53" spans="1:2" ht="30.75" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="93" t="s">
         <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -10030,37 +10050,37 @@
       </c>
     </row>
     <row r="54" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A54" s="89"/>
+      <c r="A54" s="94"/>
       <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A55" s="89"/>
+      <c r="A55" s="94"/>
       <c r="B55" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A56" s="89"/>
+      <c r="A56" s="94"/>
       <c r="B56" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="32.25" customHeight="1">
-      <c r="A57" s="90"/>
+      <c r="A57" s="95"/>
       <c r="B57" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="27" customHeight="1">
-      <c r="A58" s="94" t="s">
+      <c r="A58" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B58" s="94"/>
+      <c r="B58" s="90"/>
     </row>
     <row r="59" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A59" s="88" t="s">
+      <c r="A59" s="93" t="s">
         <v>88</v>
       </c>
       <c r="B59" s="2" t="s">
@@ -10068,25 +10088,25 @@
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="89"/>
+      <c r="A60" s="94"/>
       <c r="B60" s="2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="90"/>
+      <c r="A61" s="95"/>
       <c r="B61" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="94"/>
+      <c r="B62" s="90"/>
     </row>
     <row r="63" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A63" s="94" t="s">
+      <c r="A63" s="90" t="s">
         <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -10094,31 +10114,31 @@
       </c>
     </row>
     <row r="64" spans="1:2" ht="25.5">
-      <c r="A64" s="94"/>
+      <c r="A64" s="90"/>
       <c r="B64" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A65" s="94"/>
+      <c r="A65" s="90"/>
       <c r="B65" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A66" s="94"/>
+      <c r="A66" s="90"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A67" s="94" t="s">
+      <c r="A67" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="94"/>
+      <c r="B67" s="90"/>
     </row>
     <row r="68" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A68" s="94" t="s">
+      <c r="A68" s="90" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -10126,37 +10146,37 @@
       </c>
     </row>
     <row r="69" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A69" s="94"/>
+      <c r="A69" s="90"/>
       <c r="B69" s="2" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A70" s="94"/>
+      <c r="A70" s="90"/>
       <c r="B70" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A71" s="94"/>
+      <c r="A71" s="90"/>
       <c r="B71" s="2" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="21.75" customHeight="1">
-      <c r="A72" s="94"/>
+      <c r="A72" s="90"/>
       <c r="B72" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="25.5" customHeight="1">
-      <c r="A73" s="94" t="s">
+      <c r="A73" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="B73" s="94"/>
+      <c r="B73" s="90"/>
     </row>
     <row r="74" spans="1:2" ht="38.25" customHeight="1">
-      <c r="A74" s="94" t="s">
+      <c r="A74" s="90" t="s">
         <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -10164,7 +10184,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A75" s="94"/>
+      <c r="A75" s="90"/>
       <c r="B75" s="2" t="s">
         <v>103</v>
       </c>
@@ -10235,14 +10255,14 @@
       <c r="C87" s="91"/>
     </row>
     <row r="88" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A88" s="95" t="s">
+      <c r="A88" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="B88" s="93"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="99"/>
     </row>
     <row r="89" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A89" s="88" t="s">
+      <c r="A89" s="93" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="2" t="s">
@@ -10253,7 +10273,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A90" s="89"/>
+      <c r="A90" s="94"/>
       <c r="B90" s="2" t="s">
         <v>67</v>
       </c>
@@ -10262,7 +10282,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A91" s="89"/>
+      <c r="A91" s="94"/>
       <c r="B91" s="2" t="s">
         <v>68</v>
       </c>
@@ -10271,7 +10291,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A92" s="89"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="2" t="s">
         <v>69</v>
       </c>
@@ -10280,7 +10300,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A93" s="89"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="2" t="s">
         <v>70</v>
       </c>
@@ -10289,7 +10309,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A94" s="89"/>
+      <c r="A94" s="94"/>
       <c r="B94" s="2" t="s">
         <v>71</v>
       </c>
@@ -10298,7 +10318,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="33" customHeight="1">
-      <c r="A95" s="90"/>
+      <c r="A95" s="95"/>
       <c r="B95" s="2" t="s">
         <v>72</v>
       </c>
@@ -10307,14 +10327,14 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="27.75" customHeight="1">
-      <c r="A96" s="95" t="s">
+      <c r="A96" s="98" t="s">
         <v>80</v>
       </c>
-      <c r="B96" s="93"/>
-      <c r="C96" s="96"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="99"/>
     </row>
     <row r="97" spans="1:3" ht="40.5" customHeight="1">
-      <c r="A97" s="88" t="s">
+      <c r="A97" s="93" t="s">
         <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -10325,7 +10345,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="18" customHeight="1">
-      <c r="A98" s="89"/>
+      <c r="A98" s="94"/>
       <c r="B98" s="2" t="s">
         <v>74</v>
       </c>
@@ -10334,7 +10354,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="63.75">
-      <c r="A99" s="90"/>
+      <c r="A99" s="95"/>
       <c r="B99" s="2" t="s">
         <v>75</v>
       </c>
@@ -10350,14 +10370,14 @@
       <c r="C101" s="91"/>
     </row>
     <row r="102" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A102" s="94" t="s">
+      <c r="A102" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="94"/>
-      <c r="C102" s="94"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
     </row>
     <row r="103" spans="1:3" ht="21" customHeight="1">
-      <c r="A103" s="92" t="s">
+      <c r="A103" s="97" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
@@ -10368,7 +10388,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A104" s="92"/>
+      <c r="A104" s="97"/>
       <c r="B104" s="2" t="s">
         <v>115</v>
       </c>
@@ -10377,7 +10397,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" ht="24" customHeight="1">
-      <c r="A105" s="92"/>
+      <c r="A105" s="97"/>
       <c r="B105" s="2" t="s">
         <v>116</v>
       </c>
@@ -10386,7 +10406,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
-      <c r="A106" s="92"/>
+      <c r="A106" s="97"/>
       <c r="B106" s="2" t="s">
         <v>106</v>
       </c>
@@ -10395,7 +10415,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
-      <c r="A107" s="92"/>
+      <c r="A107" s="97"/>
       <c r="B107" s="2" t="s">
         <v>107</v>
       </c>
@@ -10404,7 +10424,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
-      <c r="A108" s="92"/>
+      <c r="A108" s="97"/>
       <c r="B108" s="2" t="s">
         <v>108</v>
       </c>
@@ -10413,14 +10433,14 @@
       </c>
     </row>
     <row r="109" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A109" s="94" t="s">
+      <c r="A109" s="90" t="s">
         <v>185</v>
       </c>
-      <c r="B109" s="94"/>
-      <c r="C109" s="94"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="90"/>
     </row>
     <row r="110" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A110" s="88" t="s">
+      <c r="A110" s="93" t="s">
         <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -10431,7 +10451,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="24.75" customHeight="1">
-      <c r="A111" s="90"/>
+      <c r="A111" s="95"/>
       <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
@@ -10440,14 +10460,14 @@
       </c>
     </row>
     <row r="112" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A112" s="93" t="s">
+      <c r="A112" s="96" t="s">
         <v>186</v>
       </c>
-      <c r="B112" s="93"/>
-      <c r="C112" s="93"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="96"/>
     </row>
     <row r="113" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A113" s="94" t="s">
+      <c r="A113" s="90" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -10458,7 +10478,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A114" s="94"/>
+      <c r="A114" s="90"/>
       <c r="B114" s="2" t="s">
         <v>77</v>
       </c>
@@ -10467,7 +10487,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A115" s="94"/>
+      <c r="A115" s="90"/>
       <c r="B115" s="2" t="s">
         <v>78</v>
       </c>
@@ -10476,7 +10496,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" ht="22.5" customHeight="1">
-      <c r="A116" s="94"/>
+      <c r="A116" s="90"/>
       <c r="B116" s="2" t="s">
         <v>79</v>
       </c>
@@ -10485,14 +10505,14 @@
       </c>
     </row>
     <row r="117" spans="1:3" ht="27" customHeight="1">
-      <c r="A117" s="94" t="s">
+      <c r="A117" s="90" t="s">
         <v>125</v>
       </c>
-      <c r="B117" s="94"/>
-      <c r="C117" s="94"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="90"/>
     </row>
     <row r="118" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A118" s="88" t="s">
+      <c r="A118" s="93" t="s">
         <v>126</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -10503,7 +10523,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A119" s="90"/>
+      <c r="A119" s="95"/>
       <c r="B119" s="2" t="s">
         <v>129</v>
       </c>
@@ -10512,14 +10532,14 @@
       </c>
     </row>
     <row r="120" spans="1:3" ht="27" customHeight="1">
-      <c r="A120" s="94" t="s">
+      <c r="A120" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="B120" s="94"/>
-      <c r="C120" s="94"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="90"/>
     </row>
     <row r="121" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A121" s="88" t="s">
+      <c r="A121" s="93" t="s">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -10530,7 +10550,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A122" s="89"/>
+      <c r="A122" s="94"/>
       <c r="B122" s="2" t="s">
         <v>133</v>
       </c>
@@ -10539,7 +10559,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A123" s="89"/>
+      <c r="A123" s="94"/>
       <c r="B123" s="2" t="s">
         <v>134</v>
       </c>
@@ -10548,7 +10568,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A124" s="89"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="2" t="s">
         <v>135</v>
       </c>
@@ -10557,7 +10577,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A125" s="89"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="2" t="s">
         <v>136</v>
       </c>
@@ -10566,7 +10586,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A126" s="89"/>
+      <c r="A126" s="94"/>
       <c r="B126" s="2" t="s">
         <v>137</v>
       </c>
@@ -10575,7 +10595,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A127" s="89"/>
+      <c r="A127" s="94"/>
       <c r="B127" s="2" t="s">
         <v>138</v>
       </c>
@@ -10584,7 +10604,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A128" s="89"/>
+      <c r="A128" s="94"/>
       <c r="B128" s="2" t="s">
         <v>139</v>
       </c>
@@ -10593,7 +10613,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A129" s="89"/>
+      <c r="A129" s="94"/>
       <c r="B129" s="2" t="s">
         <v>140</v>
       </c>
@@ -10602,7 +10622,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A130" s="89"/>
+      <c r="A130" s="94"/>
       <c r="B130" s="2" t="s">
         <v>141</v>
       </c>
@@ -10611,7 +10631,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A131" s="90"/>
+      <c r="A131" s="95"/>
       <c r="B131" s="2" t="s">
         <v>142</v>
       </c>
@@ -10627,14 +10647,14 @@
       <c r="C133" s="91"/>
     </row>
     <row r="134" spans="1:3" ht="23.25" customHeight="1">
-      <c r="A134" s="94" t="s">
+      <c r="A134" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="B134" s="94"/>
-      <c r="C134" s="94"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
     </row>
     <row r="135" spans="1:3" ht="21" customHeight="1">
-      <c r="A135" s="92" t="s">
+      <c r="A135" s="97" t="s">
         <v>177</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -10645,7 +10665,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A136" s="92"/>
+      <c r="A136" s="97"/>
       <c r="B136" s="2" t="s">
         <v>176</v>
       </c>
@@ -10654,14 +10674,14 @@
       </c>
     </row>
     <row r="137" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A137" s="94" t="s">
+      <c r="A137" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="B137" s="94"/>
-      <c r="C137" s="94"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="90"/>
     </row>
     <row r="138" spans="1:3" ht="21.75" customHeight="1">
-      <c r="A138" s="92" t="s">
+      <c r="A138" s="97" t="s">
         <v>178</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -10672,7 +10692,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" ht="49.5" customHeight="1">
-      <c r="A139" s="92"/>
+      <c r="A139" s="97"/>
       <c r="B139" s="2" t="s">
         <v>183</v>
       </c>
@@ -10681,14 +10701,14 @@
       </c>
     </row>
     <row r="140" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A140" s="93" t="s">
+      <c r="A140" s="96" t="s">
         <v>173</v>
       </c>
-      <c r="B140" s="93"/>
-      <c r="C140" s="93"/>
+      <c r="B140" s="96"/>
+      <c r="C140" s="96"/>
     </row>
     <row r="141" spans="1:3" ht="21" customHeight="1">
-      <c r="A141" s="92" t="s">
+      <c r="A141" s="97" t="s">
         <v>180</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -10699,7 +10719,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" ht="29.25" customHeight="1">
-      <c r="A142" s="92"/>
+      <c r="A142" s="97"/>
       <c r="B142" s="2" t="s">
         <v>176</v>
       </c>
@@ -10709,6 +10729,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A97:A99"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:A95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A52:B52"/>
     <mergeCell ref="A73:B73"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A77:B77"/>
@@ -10725,37 +10776,6 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A68:A72"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="A121:A131"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:A95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:A99"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="A137:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
